--- a/타임테이블 - Ex-Ledger.xlsx
+++ b/타임테이블 - Ex-Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.292.56109"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4576,10 +4576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A2:AH40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:M18"/>
+      <selection activeCell="O17" sqref="O15:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4975,7 +4975,7 @@
         <v>137</v>
       </c>
       <c r="O14" s="744">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P14" s="667" t="s">
         <v>94</v>
@@ -4984,7 +4984,7 @@
       <c r="R14" s="596"/>
       <c r="S14" s="596"/>
       <c r="T14" s="596"/>
-      <c r="U14" s="596"/>
+      <c r="U14" s="669"/>
       <c r="V14" s="596"/>
       <c r="W14" s="596"/>
       <c r="X14" s="596"/>
@@ -5013,8 +5013,12 @@
       <c r="K15" s="680"/>
       <c r="L15" s="680"/>
       <c r="M15" s="681"/>
-      <c r="N15" s="669"/>
-      <c r="O15" s="669"/>
+      <c r="N15" s="667" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="667" t="s">
+        <v>23</v>
+      </c>
       <c r="P15" s="669"/>
       <c r="Q15" s="596"/>
       <c r="R15" s="596"/>
@@ -5049,8 +5053,12 @@
       <c r="K16" s="680"/>
       <c r="L16" s="680"/>
       <c r="M16" s="681"/>
-      <c r="N16" s="669"/>
-      <c r="O16" s="669"/>
+      <c r="N16" s="667" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="667" t="s">
+        <v>23</v>
+      </c>
       <c r="P16" s="669"/>
       <c r="Q16" s="596"/>
       <c r="R16" s="596"/>

--- a/타임테이블 - Ex-Ledger.xlsx
+++ b/타임테이블 - Ex-Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.292.56109"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>ㅡ</t>
   </si>
@@ -538,6 +538,42 @@
   </si>
   <si>
     <t>홈페이지 레이아웃 설계 / 기능별 책임자 배정</t>
+  </si>
+  <si>
+    <t>계발 개획 수립</t>
+  </si>
+  <si>
+    <t>일정 계획 수립 / 기술 스택 선정</t>
+  </si>
+  <si>
+    <t>개발 개획 수립</t>
+  </si>
+  <si>
+    <t>개발 계획 수립</t>
+  </si>
+  <si>
+    <t>기능별 개발 /</t>
+  </si>
+  <si>
+    <t>DB 설계 및 구축</t>
+  </si>
+  <si>
+    <t>ERD 작성 / 패키지, Common 구축</t>
+  </si>
+  <si>
+    <t>ERD 작성 / 공통 파일 설계</t>
+  </si>
+  <si>
+    <t>JAVA, REACT 패키지 설계</t>
+  </si>
+  <si>
+    <t>COMMON (공통) 파일 설계</t>
+  </si>
+  <si>
+    <t>ERD설계</t>
+  </si>
+  <si>
+    <t>ERD 작성 / 테이블 설계 및 구축</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="745">
+  <cellXfs count="748">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4257,6 +4293,15 @@
     </xf>
     <xf numFmtId="9" fontId="59" fillId="45" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="59" fillId="45" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="59" fillId="43" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="43" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4576,10 +4621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A2:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:M18"/>
+    <sheetView topLeftCell="A10" tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4975,17 +5020,17 @@
         <v>137</v>
       </c>
       <c r="O14" s="744">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="P14" s="667" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="596"/>
       <c r="R14" s="596"/>
       <c r="S14" s="596"/>
       <c r="T14" s="596"/>
-      <c r="U14" s="596"/>
-      <c r="V14" s="596"/>
+      <c r="U14" s="669"/>
+      <c r="V14" s="669"/>
       <c r="W14" s="596"/>
       <c r="X14" s="596"/>
       <c r="Y14" s="596"/>
@@ -5003,24 +5048,34 @@
       <c r="A15" s="99"/>
       <c r="B15" s="687"/>
       <c r="C15" s="667"/>
-      <c r="D15" s="679"/>
+      <c r="D15" s="679" t="s">
+        <v>175</v>
+      </c>
       <c r="E15" s="680"/>
       <c r="F15" s="680"/>
       <c r="G15" s="681"/>
-      <c r="H15" s="679"/>
+      <c r="H15" s="679" t="s">
+        <v>173</v>
+      </c>
       <c r="I15" s="680"/>
       <c r="J15" s="680"/>
       <c r="K15" s="680"/>
       <c r="L15" s="680"/>
       <c r="M15" s="681"/>
-      <c r="N15" s="669"/>
-      <c r="O15" s="669"/>
-      <c r="P15" s="669"/>
+      <c r="N15" s="667" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="744">
+        <v>1</v>
+      </c>
+      <c r="P15" s="667" t="s">
+        <v>94</v>
+      </c>
       <c r="Q15" s="596"/>
       <c r="R15" s="596"/>
       <c r="S15" s="596"/>
       <c r="T15" s="596"/>
-      <c r="U15" s="596"/>
+      <c r="U15" s="669"/>
       <c r="V15" s="596"/>
       <c r="W15" s="596"/>
       <c r="X15" s="596"/>
@@ -5039,25 +5094,35 @@
       <c r="A16" s="99"/>
       <c r="B16" s="687"/>
       <c r="C16" s="667"/>
-      <c r="D16" s="679"/>
+      <c r="D16" s="679" t="s">
+        <v>180</v>
+      </c>
       <c r="E16" s="680"/>
       <c r="F16" s="680"/>
       <c r="G16" s="681"/>
-      <c r="H16" s="679"/>
+      <c r="H16" s="679" t="s">
+        <v>181</v>
+      </c>
       <c r="I16" s="680"/>
       <c r="J16" s="680"/>
       <c r="K16" s="680"/>
       <c r="L16" s="680"/>
       <c r="M16" s="681"/>
-      <c r="N16" s="669"/>
-      <c r="O16" s="669"/>
-      <c r="P16" s="669"/>
+      <c r="N16" s="667" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="744">
+        <v>0.45</v>
+      </c>
+      <c r="P16" s="667" t="s">
+        <v>94</v>
+      </c>
       <c r="Q16" s="596"/>
       <c r="R16" s="596"/>
       <c r="S16" s="596"/>
       <c r="T16" s="596"/>
       <c r="U16" s="596"/>
-      <c r="V16" s="596"/>
+      <c r="V16" s="669"/>
       <c r="W16" s="596"/>
       <c r="X16" s="596"/>
       <c r="Y16" s="596"/>
@@ -5074,11 +5139,15 @@
     <row r="17" spans="2:34" ht="19.200000" customHeight="1">
       <c r="B17" s="687"/>
       <c r="C17" s="667"/>
-      <c r="D17" s="669"/>
-      <c r="E17" s="669"/>
-      <c r="F17" s="669"/>
-      <c r="G17" s="669"/>
-      <c r="H17" s="667"/>
+      <c r="D17" s="667" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="667"/>
+      <c r="F17" s="667"/>
+      <c r="G17" s="667"/>
+      <c r="H17" s="667" t="s">
+        <v>183</v>
+      </c>
       <c r="I17" s="667"/>
       <c r="J17" s="667"/>
       <c r="K17" s="667"/>

--- a/타임테이블 - Ex-Ledger.xlsx
+++ b/타임테이블 - Ex-Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.292.56109"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4624,7 +4624,7 @@
   <dimension ref="A2:AH40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
